--- a/public/plantillas/Maestros_Plantilla_Carga_Datos.xlsx
+++ b/public/plantillas/Maestros_Plantilla_Carga_Datos.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="194">
   <si>
     <t>N°</t>
   </si>
@@ -578,12 +578,6 @@
   <si>
     <t>Error en la Columna ESTADO CIVIL:
 El código del Estado CIvil no corresponde a los valores posibles de ser consignados (1: Soltero (a), 2: Casado (a), 3: Viudo (a), ó 4: Divorsiado (a)). Corrija la Columna K, Fila n</t>
-  </si>
-  <si>
-    <t>Indicador si el Maestro sufre o no discapacidad. Valores:
-1: Si
-2: No
-Vacío: No</t>
   </si>
   <si>
     <t>Error en la Columna SUFRE DISCAPACIDAD:
@@ -657,12 +651,21 @@
     <t>Error en la Columna IDIOMA:
 El código del Idioma no corresponde a los valores posibles de ser consignados (1: Inglés, 2: Italiano, 3: Francés, 4: Alemán, 5: Quechua, 6: Portugués). Corrija la Columna P, Fila n</t>
   </si>
+  <si>
+    <t>Indicador si el Maestro sufre o no discapacidad. Valores:
+1: Si
+0: No
+Vacío: No</t>
+  </si>
+  <si>
+    <t>Nota: Se debe de llenar la Hoja1 del Excel con las siguientes instrucciones</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -755,6 +758,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -854,7 +864,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -913,6 +923,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bueno" xfId="2" builtinId="26"/>
@@ -1464,7 +1475,7 @@
   <dimension ref="A2:I37"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1492,6 +1503,11 @@
       <c r="I2" s="21"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="22" t="s">
+        <v>193</v>
+      </c>
+    </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>35</v>
@@ -1850,7 +1866,7 @@
         <v>8</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="D19" s="11" t="s">
         <v>52</v>
@@ -1868,7 +1884,7 @@
         <v>67</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="60" x14ac:dyDescent="0.35">
@@ -1879,7 +1895,7 @@
         <v>9</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D20" s="11" t="s">
         <v>83</v>
@@ -1897,7 +1913,7 @@
         <v>69</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
@@ -1908,7 +1924,7 @@
         <v>112</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D21" s="11" t="s">
         <v>49</v>
@@ -1926,7 +1942,7 @@
         <v>71</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
@@ -1937,7 +1953,7 @@
         <v>148</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D22" s="11" t="s">
         <v>49</v>
@@ -1949,13 +1965,13 @@
         <v>66</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H22" s="13" t="s">
         <v>73</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="106.5" x14ac:dyDescent="0.35">
@@ -1966,7 +1982,7 @@
         <v>113</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D23" s="11" t="s">
         <v>49</v>
@@ -1984,7 +2000,7 @@
         <v>76</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="31.5" x14ac:dyDescent="0.35">
@@ -1995,7 +2011,7 @@
         <v>114</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D24" s="11" t="s">
         <v>49</v>
@@ -2024,7 +2040,7 @@
         <v>115</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D25" s="11" t="s">
         <v>49</v>
@@ -2053,7 +2069,7 @@
         <v>116</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D26" s="11" t="s">
         <v>49</v>
@@ -2082,7 +2098,7 @@
         <v>117</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D27" s="11" t="s">
         <v>49</v>
@@ -2111,7 +2127,7 @@
         <v>118</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D28" s="11" t="s">
         <v>49</v>
@@ -2140,7 +2156,7 @@
         <v>119</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D29" s="11" t="s">
         <v>49</v>
@@ -2285,7 +2301,7 @@
         <v>149</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D34" s="11" t="s">
         <v>49</v>
@@ -2303,7 +2319,7 @@
         <v>100</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="61.5" x14ac:dyDescent="0.35">
@@ -2314,7 +2330,7 @@
         <v>120</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D35" s="11" t="s">
         <v>49</v>
@@ -2343,7 +2359,7 @@
         <v>14</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D36" s="9" t="s">
         <v>45</v>
@@ -2395,6 +2411,6 @@
     <hyperlink ref="G45" r:id="rId1" display="juan@unasam.edu.pe"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="1200" r:id="rId2"/>
 </worksheet>
 </file>